--- a/biology/Médecine/L'Enfant_que_je_n'attendais_pas/L'Enfant_que_je_n'attendais_pas.xlsx
+++ b/biology/Médecine/L'Enfant_que_je_n'attendais_pas/L'Enfant_que_je_n'attendais_pas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Enfant_que_je_n%27attendais_pas</t>
+          <t>L'Enfant_que_je_n'attendais_pas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Enfant que je n'attendais pas est un téléfilm français réalisé par Bruno Garcia et diffusé le 8 mai 2019 sur France 2[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Enfant que je n'attendais pas est un téléfilm français réalisé par Bruno Garcia et diffusé le 8 mai 2019 sur France 2. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Enfant_que_je_n%27attendais_pas</t>
+          <t>L'Enfant_que_je_n'attendais_pas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johanna, responsable marketing et mère d'une petite fille accouche d'un enfant qu'elle n'attendait pas. Elle se débarrasse du bébé et est accusée d'infanticide.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Enfant_que_je_n%27attendais_pas</t>
+          <t>L'Enfant_que_je_n'attendais_pas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisateur : Bruno Garcia
 Scénario : Caroline du Potet, Éric du Potet
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Enfant_que_je_n%27attendais_pas</t>
+          <t>L'Enfant_que_je_n'attendais_pas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Alix Poisson : Johanna
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Enfant_que_je_n%27attendais_pas</t>
+          <t>L'Enfant_que_je_n'attendais_pas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2019 : Festival des créations télévisuelles de Luchon : Prix de la meilleure actrice pour Alix Poisson</t>
         </is>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%27Enfant_que_je_n%27attendais_pas</t>
+          <t>L'Enfant_que_je_n'attendais_pas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,9 +665,11 @@
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour Moustique « Bruno Garcia aborde dans ce téléfilm un sujet fort : le déni de grossesse. En évitant une approche manichéenne, le réalisateur touche au tabou ultime avec intelligence et émotion ». Comme l'avait fait le jury du Festival de Luchon, la journaliste Jeanne Persoon salue la prestation d'Alix Poisson, « incroyablement investie dans cette incarnation d'une mère qui ne veut plus en être une » et qui « parvient à dépeindre avec subtilité toutes les contradictions de l'être humain » et rappelle qu'elle avait déjà interprété un rôle de mère infanticide dans Parcours meurtrier d'une mère ordinaire : L'affaire Courjault de Jean-Xavier de Lestrade[2]. Pour Le Parisien, « la réussite de cette fiction tient [...] sur le choix du prisme de l'intime. Il est question ici d'une véritable histoire humaine qui permet d'aborder le déni de grossesse sans se contenter de considérations médicales ou juridiques »[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour Moustique « Bruno Garcia aborde dans ce téléfilm un sujet fort : le déni de grossesse. En évitant une approche manichéenne, le réalisateur touche au tabou ultime avec intelligence et émotion ». Comme l'avait fait le jury du Festival de Luchon, la journaliste Jeanne Persoon salue la prestation d'Alix Poisson, « incroyablement investie dans cette incarnation d'une mère qui ne veut plus en être une » et qui « parvient à dépeindre avec subtilité toutes les contradictions de l'être humain » et rappelle qu'elle avait déjà interprété un rôle de mère infanticide dans Parcours meurtrier d'une mère ordinaire : L'affaire Courjault de Jean-Xavier de Lestrade. Pour Le Parisien, « la réussite de cette fiction tient [...] sur le choix du prisme de l'intime. Il est question ici d'une véritable histoire humaine qui permet d'aborder le déni de grossesse sans se contenter de considérations médicales ou juridiques ».
 </t>
         </is>
       </c>
